--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/ABC/20/seed5/result_data_RandomForest.xlsx
@@ -477,7 +477,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.95339999999999</v>
+        <v>-12.214</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -561,7 +561,7 @@
         <v>4.86</v>
       </c>
       <c r="C9" t="n">
-        <v>-10.3299</v>
+        <v>-10.3342</v>
       </c>
       <c r="D9" t="n">
         <v>-7.01</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-21.665</v>
+        <v>-21.75069999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>5.530000000000004</v>
+        <v>5.545100000000002</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.39100000000001</v>
+        <v>-21.36579999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -617,7 +617,7 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.87479999999999</v>
+        <v>-12.9302</v>
       </c>
       <c r="D13" t="n">
         <v>-8.359999999999999</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.33169999999999</v>
+        <v>-13.90509999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-21.5202</v>
+        <v>-21.61610000000001</v>
       </c>
       <c r="B15" t="n">
         <v>5.32</v>
@@ -701,7 +701,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-12.67120000000001</v>
+        <v>-12.50490000000002</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.8623</v>
+        <v>-12.5892</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -743,7 +743,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.5005</v>
+        <v>-11.4875</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -754,7 +754,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.579300000000003</v>
+        <v>8.818299999999997</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -771,7 +771,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.5653</v>
+        <v>-12.72249999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.93329999999999</v>
+        <v>-11.90829999999999</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.9048</v>
+        <v>-21.8916</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.8429</v>
+        <v>-21.80420000000001</v>
       </c>
       <c r="B28" t="n">
-        <v>5.701300000000002</v>
+        <v>5.881699999999999</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-21.56</v>
+        <v>-21.5195</v>
       </c>
       <c r="B31" t="n">
         <v>4.47</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.21479999999997</v>
+        <v>-21.11929999999997</v>
       </c>
       <c r="B32" t="n">
-        <v>5.857499999999999</v>
+        <v>5.854399999999997</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -908,7 +908,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>9.005400000000002</v>
+        <v>9.469200000000003</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-21.33039999999999</v>
+        <v>-21.27589999999998</v>
       </c>
       <c r="B36" t="n">
-        <v>5.105899999999997</v>
+        <v>5.165999999999998</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -950,7 +950,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.906400000000001</v>
+        <v>9.033399999999999</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.00279999999999</v>
+        <v>-20.04109999999998</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.1613</v>
+        <v>-11.9182</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1009,7 +1009,7 @@
         <v>8.92</v>
       </c>
       <c r="C41" t="n">
-        <v>-12.74630000000002</v>
+        <v>-12.72930000000001</v>
       </c>
       <c r="D41" t="n">
         <v>-8.720000000000001</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>10.3226</v>
+        <v>10.3179</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.897</v>
+        <v>-21.82080000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1118,7 +1118,7 @@
         <v>-22.14</v>
       </c>
       <c r="B49" t="n">
-        <v>4.8203</v>
+        <v>4.9772</v>
       </c>
       <c r="C49" t="n">
         <v>-12.11</v>
@@ -1163,7 +1163,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.83</v>
+        <v>-10.9439</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1185,10 +1185,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.6314</v>
+        <v>-21.77040000000001</v>
       </c>
       <c r="B54" t="n">
-        <v>4.734500000000001</v>
+        <v>4.288900000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.76530000000001</v>
+        <v>-21.83620000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-21.9608</v>
+        <v>-21.96339999999999</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.10369999999999</v>
+        <v>-12.5282</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.54089999999997</v>
+        <v>-21.60569999999997</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.69709999999998</v>
+        <v>-21.77169999999998</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1429,7 +1429,7 @@
         <v>4.58</v>
       </c>
       <c r="C71" t="n">
-        <v>-12.915</v>
+        <v>-12.7926</v>
       </c>
       <c r="D71" t="n">
         <v>-7.44</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.0251</v>
+        <v>-21.93209999999999</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-12.0621</v>
+        <v>-12.41379999999999</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-19.48990000000002</v>
+        <v>-19.35470000000002</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1524,10 +1524,10 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.090799999999991</v>
+        <v>9.919900000000005</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.61660000000001</v>
+        <v>-11.59550000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1552,7 +1552,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.131799999999998</v>
+        <v>9.139799999999997</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1591,13 +1591,13 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.82139999999999</v>
+        <v>-21.76099999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-12.07309999999999</v>
+        <v>-12.2299</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1625,7 +1625,7 @@
         <v>4.31</v>
       </c>
       <c r="C85" t="n">
-        <v>-13.2843</v>
+        <v>-13.64569999999999</v>
       </c>
       <c r="D85" t="n">
         <v>-7.87</v>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-21.86720000000001</v>
+        <v>-21.8506</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-12.1829</v>
+        <v>-12.8688</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1695,7 +1695,7 @@
         <v>4.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-10.05550000000001</v>
+        <v>-10.0952</v>
       </c>
       <c r="D90" t="n">
         <v>-7</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.89419999999999</v>
+        <v>-20.7256</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.36550000000001</v>
+        <v>-21.4098</v>
       </c>
       <c r="B93" t="n">
         <v>4.28</v>
@@ -1779,7 +1779,7 @@
         <v>4.26</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.2563</v>
+        <v>-10.2097</v>
       </c>
       <c r="D96" t="n">
         <v>-5.14</v>
@@ -1790,7 +1790,7 @@
         <v>-21.33</v>
       </c>
       <c r="B97" t="n">
-        <v>6.081399999999998</v>
+        <v>6.337899999999996</v>
       </c>
       <c r="C97" t="n">
         <v>-10.47</v>
@@ -1815,10 +1815,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.68859999999998</v>
+        <v>-21.85840000000001</v>
       </c>
       <c r="B99" t="n">
-        <v>5.426699999999999</v>
+        <v>5.057699999999998</v>
       </c>
       <c r="C99" t="n">
         <v>-13.93</v>
@@ -1832,7 +1832,7 @@
         <v>-21.08</v>
       </c>
       <c r="B100" t="n">
-        <v>4.649</v>
+        <v>4.482400000000002</v>
       </c>
       <c r="C100" t="n">
         <v>-13.95</v>
@@ -1846,7 +1846,7 @@
         <v>-21.4</v>
       </c>
       <c r="B101" t="n">
-        <v>4.706999999999999</v>
+        <v>4.676499999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-15.77</v>
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-12.3393</v>
+        <v>-13.30099999999999</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.67679999999999</v>
+        <v>-21.54969999999999</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
@@ -1899,7 +1899,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-20.09759999999998</v>
+        <v>-19.94969999999999</v>
       </c>
       <c r="B105" t="n">
         <v>9.01</v>
